--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,253 +522,253 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8459995</v>
+        <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>43.5</v>
+        <v>27.7</v>
       </c>
       <c r="E2" t="n">
-        <v>3679937</v>
+        <v>785395</v>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>152725</v>
+        <v>113896</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>470124</v>
+        <v>111194</v>
       </c>
       <c r="J2" t="n">
-        <v>10.1</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>858239</v>
+        <v>40407</v>
       </c>
       <c r="L2" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="M2" t="n">
-        <v>3298971</v>
+        <v>1783065</v>
       </c>
       <c r="N2" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="O2" t="n">
-        <v>5161024</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Host Community (5-17 y.o.)</t>
+          <t>ocap (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Host Community</t>
+          <t>ocap</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6886611</v>
+        <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>43.1</v>
+        <v>24.4</v>
       </c>
       <c r="E3" t="n">
-        <v>2968866</v>
+        <v>603451</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>96962</v>
+        <v>97997</v>
       </c>
       <c r="H3" t="n">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>417404</v>
+        <v>99845</v>
       </c>
       <c r="J3" t="n">
-        <v>9.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>676537</v>
+        <v>25528</v>
       </c>
       <c r="L3" t="n">
-        <v>39.6</v>
+        <v>66.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2726842</v>
+        <v>1644768</v>
       </c>
       <c r="N3" t="n">
-        <v>60.4</v>
+        <v>33.5</v>
       </c>
       <c r="O3" t="n">
-        <v>4159769</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>New IDPs (5-17 y.o.)</t>
+          <t>idp (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New IDPs</t>
+          <t>idp</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>228282</v>
+        <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>57.8</v>
+        <v>51.4</v>
       </c>
       <c r="E4" t="n">
-        <v>132019</v>
+        <v>116675</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>4717</v>
+        <v>7382</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2907</v>
+        <v>7675</v>
       </c>
       <c r="J4" t="n">
-        <v>18.7</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>42668</v>
+        <v>11695</v>
       </c>
       <c r="L4" t="n">
-        <v>20.1</v>
+        <v>36.8</v>
       </c>
       <c r="M4" t="n">
-        <v>45971</v>
+        <v>83383</v>
       </c>
       <c r="N4" t="n">
-        <v>79.90000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>182310</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Protracted IDPs (5-17 y.o.)</t>
+          <t>ret (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Protracted IDPs</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1345102</v>
+        <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>45.8</v>
       </c>
       <c r="E5" t="n">
-        <v>579052</v>
+        <v>51983</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>7.1</v>
       </c>
       <c r="G5" t="n">
-        <v>51046</v>
+        <v>8099</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>49813</v>
+        <v>3469</v>
       </c>
       <c r="J5" t="n">
-        <v>10.3</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>139034</v>
+        <v>2034</v>
       </c>
       <c r="L5" t="n">
-        <v>39.1</v>
+        <v>42.2</v>
       </c>
       <c r="M5" t="n">
-        <v>526157</v>
+        <v>47820</v>
       </c>
       <c r="N5" t="n">
-        <v>60.9</v>
+        <v>57.8</v>
       </c>
       <c r="O5" t="n">
-        <v>818945</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Girls</t>
+          <t>ndsp (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>ndsp</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3848688</v>
+        <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>43.2</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>1661991</v>
+        <v>13287</v>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>69716</v>
+        <v>418</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" t="n">
-        <v>221678</v>
+        <v>205</v>
       </c>
       <c r="J6" t="n">
-        <v>10.7</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>412151</v>
+        <v>1150</v>
       </c>
       <c r="L6" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>1483153</v>
+        <v>7094</v>
       </c>
       <c r="N6" t="n">
-        <v>61.5</v>
+        <v>68</v>
       </c>
       <c r="O6" t="n">
-        <v>2365535</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boys</t>
+          <t>Girls</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4611307</v>
+        <v>1251549</v>
       </c>
       <c r="D7" t="n">
-        <v>43.8</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>2017946</v>
+        <v>338232</v>
       </c>
       <c r="F7" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>83009</v>
+        <v>50280</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>248447</v>
+        <v>46822</v>
       </c>
       <c r="J7" t="n">
-        <v>9.699999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="K7" t="n">
-        <v>446088</v>
+        <v>16896</v>
       </c>
       <c r="L7" t="n">
-        <v>39.4</v>
+        <v>63.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1815818</v>
+        <v>799319</v>
       </c>
       <c r="N7" t="n">
-        <v>60.6</v>
+        <v>36.1</v>
       </c>
       <c r="O7" t="n">
-        <v>2795489</v>
+        <v>452230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>Boys</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -828,49 +828,49 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1505582</v>
+        <v>1582409</v>
       </c>
       <c r="D8" t="n">
-        <v>42.5</v>
+        <v>28.3</v>
       </c>
       <c r="E8" t="n">
-        <v>640300</v>
+        <v>447164</v>
       </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>36106</v>
+        <v>63616</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>62414</v>
+        <v>64372</v>
       </c>
       <c r="J8" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="K8" t="n">
-        <v>112713</v>
+        <v>23511</v>
       </c>
       <c r="L8" t="n">
-        <v>43.4</v>
+        <v>62.2</v>
       </c>
       <c r="M8" t="n">
-        <v>654050</v>
+        <v>983746</v>
       </c>
       <c r="N8" t="n">
-        <v>56.6</v>
+        <v>37.8</v>
       </c>
       <c r="O8" t="n">
-        <v>851532</v>
+        <v>598663</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Primary school</t>
+          <t>ECE (5 y.o.)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -879,49 +879,49 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2603075</v>
+        <v>290232</v>
       </c>
       <c r="D9" t="n">
-        <v>43.5</v>
+        <v>28.1</v>
       </c>
       <c r="E9" t="n">
-        <v>1132288</v>
+        <v>81471</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>46992</v>
+        <v>11509</v>
       </c>
       <c r="H9" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>144654</v>
+        <v>10930</v>
       </c>
       <c r="J9" t="n">
-        <v>10.1</v>
+        <v>1.4</v>
       </c>
       <c r="K9" t="n">
-        <v>264073</v>
+        <v>4139</v>
       </c>
       <c r="L9" t="n">
-        <v>39</v>
+        <v>62.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1015068</v>
+        <v>182182</v>
       </c>
       <c r="N9" t="n">
-        <v>61</v>
+        <v>37.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1588007</v>
+        <v>108050</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Upper primary school</t>
+          <t>Primary school</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -930,49 +930,49 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3253844</v>
+        <v>1089984</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5</v>
+        <v>27.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1415360</v>
+        <v>302075</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>58740</v>
+        <v>43806</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>180817</v>
+        <v>42767</v>
       </c>
       <c r="J10" t="n">
-        <v>10.1</v>
+        <v>1.4</v>
       </c>
       <c r="K10" t="n">
-        <v>330092</v>
+        <v>15541</v>
       </c>
       <c r="L10" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="M10" t="n">
-        <v>1268835</v>
+        <v>685794</v>
       </c>
       <c r="N10" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1985009</v>
+        <v>404190</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Secondary school</t>
+          <t>Upper primary school</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -981,94 +981,145 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1952307</v>
+        <v>871987</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5</v>
+        <v>27.7</v>
       </c>
       <c r="E11" t="n">
-        <v>849216</v>
+        <v>241660</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>35244</v>
+        <v>35045</v>
       </c>
       <c r="H11" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>108490</v>
+        <v>34214</v>
       </c>
       <c r="J11" t="n">
-        <v>10.1</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
-        <v>198055</v>
+        <v>12433</v>
       </c>
       <c r="L11" t="n">
-        <v>39</v>
+        <v>62.9</v>
       </c>
       <c r="M11" t="n">
-        <v>761301</v>
+        <v>548635</v>
       </c>
       <c r="N11" t="n">
-        <v>61</v>
+        <v>37.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1191006</v>
+        <v>323352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Secondary school</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>All population groups</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>653990</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>181245</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26284</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25660</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9325</v>
+      </c>
+      <c r="L12" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>411477</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>242514</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Children with disability</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>All population groups</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>845999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>367994</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15272</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47012</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>85824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>39</v>
-      </c>
-      <c r="M12" t="n">
-        <v>329897</v>
-      </c>
-      <c r="N12" t="n">
-        <v>61</v>
-      </c>
-      <c r="O12" t="n">
-        <v>516102</v>
+      <c r="C13" t="n">
+        <v>283396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>78540</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11390</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11119</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4041</v>
+      </c>
+      <c r="L13" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="M13" t="n">
+        <v>178306</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>105089</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,12 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>% Not falling within the PiN dimensions</t>
+          <t>% Not in need</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># Not falling within the PiN dimensions</t>
+          <t># Not in need</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Girls</t>
+          <t>Girls (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -780,46 +780,46 @@
         <v>1251549</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="E7" t="n">
-        <v>338232</v>
+        <v>335825</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>50280</v>
+        <v>54947</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>46822</v>
+        <v>48329</v>
       </c>
       <c r="J7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>16896</v>
+        <v>15870</v>
       </c>
       <c r="L7" t="n">
-        <v>63.9</v>
+        <v>63.6</v>
       </c>
       <c r="M7" t="n">
-        <v>799319</v>
+        <v>796577</v>
       </c>
       <c r="N7" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="O7" t="n">
-        <v>452230</v>
+        <v>454972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boys</t>
+          <t>Boys (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -831,40 +831,40 @@
         <v>1582409</v>
       </c>
       <c r="D8" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E8" t="n">
-        <v>447164</v>
+        <v>451938</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>63616</v>
+        <v>56971</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>64372</v>
+        <v>65185</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
-        <v>23511</v>
+        <v>24672</v>
       </c>
       <c r="L8" t="n">
         <v>62.2</v>
       </c>
       <c r="M8" t="n">
-        <v>983746</v>
+        <v>983644</v>
       </c>
       <c r="N8" t="n">
         <v>37.8</v>
       </c>
       <c r="O8" t="n">
-        <v>598663</v>
+        <v>598765</v>
       </c>
     </row>
     <row r="9">
@@ -882,40 +882,40 @@
         <v>290232</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1</v>
+        <v>26.8</v>
       </c>
       <c r="E9" t="n">
-        <v>81471</v>
+        <v>77773</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="G9" t="n">
-        <v>11509</v>
+        <v>2364</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>10930</v>
+        <v>6904</v>
       </c>
       <c r="J9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4139</v>
+        <v>4234</v>
       </c>
       <c r="L9" t="n">
-        <v>62.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>182182</v>
+        <v>198957</v>
       </c>
       <c r="N9" t="n">
-        <v>37.2</v>
+        <v>31.4</v>
       </c>
       <c r="O9" t="n">
-        <v>108050</v>
+        <v>91274</v>
       </c>
     </row>
     <row r="10">
@@ -933,46 +933,46 @@
         <v>1089984</v>
       </c>
       <c r="D10" t="n">
-        <v>27.7</v>
+        <v>22.2</v>
       </c>
       <c r="E10" t="n">
-        <v>302075</v>
+        <v>242310</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>43806</v>
+        <v>10040</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>42767</v>
+        <v>55205</v>
       </c>
       <c r="J10" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>15541</v>
+        <v>19733</v>
       </c>
       <c r="L10" t="n">
-        <v>62.9</v>
+        <v>70</v>
       </c>
       <c r="M10" t="n">
-        <v>685794</v>
+        <v>762696</v>
       </c>
       <c r="N10" t="n">
-        <v>37.1</v>
+        <v>30</v>
       </c>
       <c r="O10" t="n">
-        <v>404190</v>
+        <v>327288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Upper primary school</t>
+          <t>Intermediate school-level</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,40 +984,40 @@
         <v>871987</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7</v>
+        <v>26.4</v>
       </c>
       <c r="E11" t="n">
-        <v>241660</v>
+        <v>229861</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>35045</v>
+        <v>26406</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>34214</v>
+        <v>29001</v>
       </c>
       <c r="J11" t="n">
         <v>1.4</v>
       </c>
       <c r="K11" t="n">
-        <v>12433</v>
+        <v>12007</v>
       </c>
       <c r="L11" t="n">
-        <v>62.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>548635</v>
+        <v>574713</v>
       </c>
       <c r="N11" t="n">
-        <v>37.1</v>
+        <v>34.1</v>
       </c>
       <c r="O11" t="n">
-        <v>323352</v>
+        <v>297274</v>
       </c>
     </row>
     <row r="12">
@@ -1035,91 +1035,40 @@
         <v>653990</v>
       </c>
       <c r="D12" t="n">
-        <v>27.7</v>
+        <v>40.5</v>
       </c>
       <c r="E12" t="n">
-        <v>181245</v>
+        <v>264609</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>26284</v>
+        <v>78244</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>25660</v>
+        <v>20489</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>9325</v>
+        <v>4536</v>
       </c>
       <c r="L12" t="n">
-        <v>62.9</v>
+        <v>43.7</v>
       </c>
       <c r="M12" t="n">
-        <v>411477</v>
+        <v>286113</v>
       </c>
       <c r="N12" t="n">
-        <v>37.1</v>
+        <v>56.3</v>
       </c>
       <c r="O12" t="n">
-        <v>242514</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Children with disability</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>283396</v>
-      </c>
-      <c r="D13" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>78540</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11390</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11119</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4041</v>
-      </c>
-      <c r="L13" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>178306</v>
-      </c>
-      <c r="N13" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>105089</v>
+        <v>367878</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -525,40 +525,40 @@
         <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>27.7</v>
+        <v>26.1</v>
       </c>
       <c r="E2" t="n">
-        <v>785395</v>
+        <v>740037</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>113896</v>
+        <v>61511</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>111194</v>
+        <v>149260</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>40407</v>
+        <v>34469</v>
       </c>
       <c r="L2" t="n">
-        <v>62.9</v>
+        <v>65.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1783065</v>
+        <v>1848682</v>
       </c>
       <c r="N2" t="n">
-        <v>37.1</v>
+        <v>34.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1050893</v>
+        <v>985277</v>
       </c>
     </row>
     <row r="3">
@@ -576,40 +576,40 @@
         <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4</v>
+        <v>22.4</v>
       </c>
       <c r="E3" t="n">
-        <v>603451</v>
+        <v>554525</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>97997</v>
+        <v>40499</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>99845</v>
+        <v>137920</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K3" t="n">
-        <v>25528</v>
+        <v>21113</v>
       </c>
       <c r="L3" t="n">
-        <v>66.5</v>
+        <v>69.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1644768</v>
+        <v>1717531</v>
       </c>
       <c r="N3" t="n">
-        <v>33.5</v>
+        <v>30.5</v>
       </c>
       <c r="O3" t="n">
-        <v>826821</v>
+        <v>754057</v>
       </c>
     </row>
     <row r="4">
@@ -627,40 +627,40 @@
         <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>51.4</v>
+        <v>54.4</v>
       </c>
       <c r="E4" t="n">
-        <v>116675</v>
+        <v>123430</v>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>7382</v>
+        <v>10442</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>7675</v>
+        <v>7031</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>11695</v>
+        <v>11150</v>
       </c>
       <c r="L4" t="n">
-        <v>36.8</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>83383</v>
+        <v>74758</v>
       </c>
       <c r="N4" t="n">
-        <v>63.2</v>
+        <v>67</v>
       </c>
       <c r="O4" t="n">
-        <v>143427</v>
+        <v>152052</v>
       </c>
     </row>
     <row r="5">
@@ -678,40 +678,40 @@
         <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>45.8</v>
+        <v>44.4</v>
       </c>
       <c r="E5" t="n">
-        <v>51983</v>
+        <v>50335</v>
       </c>
       <c r="F5" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="G5" t="n">
-        <v>8099</v>
+        <v>9656</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3469</v>
+        <v>4309</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2034</v>
+        <v>622</v>
       </c>
       <c r="L5" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
       <c r="M5" t="n">
-        <v>47820</v>
+        <v>48483</v>
       </c>
       <c r="N5" t="n">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="O5" t="n">
-        <v>65585</v>
+        <v>64922</v>
       </c>
     </row>
     <row r="6">
@@ -729,40 +729,40 @@
         <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>13287</v>
+        <v>11747</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>418</v>
+        <v>913</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1150</v>
+        <v>1584</v>
       </c>
       <c r="L6" t="n">
-        <v>32</v>
+        <v>35.7</v>
       </c>
       <c r="M6" t="n">
-        <v>7094</v>
+        <v>7909</v>
       </c>
       <c r="N6" t="n">
-        <v>68</v>
+        <v>64.3</v>
       </c>
       <c r="O6" t="n">
-        <v>15060</v>
+        <v>14245</v>
       </c>
     </row>
     <row r="7">
@@ -780,40 +780,40 @@
         <v>1251549</v>
       </c>
       <c r="D7" t="n">
-        <v>26.8</v>
+        <v>26.3</v>
       </c>
       <c r="E7" t="n">
-        <v>335825</v>
+        <v>329536</v>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="n">
-        <v>54947</v>
+        <v>19912</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="I7" t="n">
-        <v>48329</v>
+        <v>84368</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="K7" t="n">
-        <v>15870</v>
+        <v>10346</v>
       </c>
       <c r="L7" t="n">
-        <v>63.6</v>
+        <v>64.5</v>
       </c>
       <c r="M7" t="n">
-        <v>796577</v>
+        <v>807387</v>
       </c>
       <c r="N7" t="n">
-        <v>36.4</v>
+        <v>35.5</v>
       </c>
       <c r="O7" t="n">
-        <v>454972</v>
+        <v>444162</v>
       </c>
     </row>
     <row r="8">
@@ -831,40 +831,40 @@
         <v>1582409</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>27.4</v>
       </c>
       <c r="E8" t="n">
-        <v>451938</v>
+        <v>433202</v>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>56971</v>
+        <v>48981</v>
       </c>
       <c r="H8" t="n">
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>65185</v>
+        <v>65011</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K8" t="n">
-        <v>24672</v>
+        <v>26622</v>
       </c>
       <c r="L8" t="n">
-        <v>62.2</v>
+        <v>63.7</v>
       </c>
       <c r="M8" t="n">
-        <v>983644</v>
+        <v>1008594</v>
       </c>
       <c r="N8" t="n">
-        <v>37.8</v>
+        <v>36.3</v>
       </c>
       <c r="O8" t="n">
-        <v>598765</v>
+        <v>573815</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>290232</v>
+        <v>235341</v>
       </c>
       <c r="D9" t="n">
-        <v>26.8</v>
+        <v>25.4</v>
       </c>
       <c r="E9" t="n">
-        <v>77773</v>
+        <v>59784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2364</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="I9" t="n">
-        <v>6904</v>
+        <v>15517</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4234</v>
+        <v>2175</v>
       </c>
       <c r="L9" t="n">
-        <v>68.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="M9" t="n">
-        <v>198957</v>
+        <v>157732</v>
       </c>
       <c r="N9" t="n">
-        <v>31.4</v>
+        <v>33</v>
       </c>
       <c r="O9" t="n">
-        <v>91274</v>
+        <v>77609</v>
       </c>
     </row>
     <row r="10">
@@ -933,40 +933,40 @@
         <v>1089984</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2</v>
+        <v>25.3</v>
       </c>
       <c r="E10" t="n">
-        <v>242310</v>
+        <v>275250</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>10040</v>
+        <v>5829</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>55205</v>
+        <v>23116</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>19733</v>
+        <v>6112</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>71.5</v>
       </c>
       <c r="M10" t="n">
-        <v>762696</v>
+        <v>779677</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="O10" t="n">
-        <v>327288</v>
+        <v>310307</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>871987</v>
+        <v>865740</v>
       </c>
       <c r="D11" t="n">
-        <v>26.4</v>
+        <v>24.1</v>
       </c>
       <c r="E11" t="n">
-        <v>229861</v>
+        <v>208853</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="G11" t="n">
-        <v>26406</v>
+        <v>3018</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>29001</v>
+        <v>15934</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="n">
-        <v>12007</v>
+        <v>16479</v>
       </c>
       <c r="L11" t="n">
-        <v>65.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="M11" t="n">
-        <v>574713</v>
+        <v>621456</v>
       </c>
       <c r="N11" t="n">
-        <v>34.1</v>
+        <v>28.2</v>
       </c>
       <c r="O11" t="n">
-        <v>297274</v>
+        <v>244284</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>653990</v>
+        <v>648133</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5</v>
+        <v>35.4</v>
       </c>
       <c r="E12" t="n">
-        <v>264609</v>
+        <v>229279</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="G12" t="n">
-        <v>78244</v>
+        <v>39608</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>12.5</v>
       </c>
       <c r="I12" t="n">
-        <v>20489</v>
+        <v>80892</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>4536</v>
+        <v>5805</v>
       </c>
       <c r="L12" t="n">
-        <v>43.7</v>
+        <v>45.1</v>
       </c>
       <c r="M12" t="n">
-        <v>286113</v>
+        <v>292549</v>
       </c>
       <c r="N12" t="n">
-        <v>56.3</v>
+        <v>54.9</v>
       </c>
       <c r="O12" t="n">
-        <v>367878</v>
+        <v>355584</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2833958</v>
+        <v>3627552</v>
       </c>
       <c r="D2" t="n">
-        <v>26.1</v>
+        <v>59.4</v>
       </c>
       <c r="E2" t="n">
-        <v>740037</v>
+        <v>2153779</v>
       </c>
       <c r="F2" t="n">
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>61511</v>
+        <v>79840</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>149260</v>
+        <v>133685</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K2" t="n">
-        <v>34469</v>
+        <v>59587</v>
       </c>
       <c r="L2" t="n">
-        <v>65.2</v>
+        <v>33.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1848682</v>
+        <v>1200661</v>
       </c>
       <c r="N2" t="n">
-        <v>34.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>985277</v>
+        <v>2426892</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2471589</v>
+        <v>3017073</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4</v>
+        <v>60.6</v>
       </c>
       <c r="E3" t="n">
-        <v>554525</v>
+        <v>1827377</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>40499</v>
+        <v>61752</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>137920</v>
+        <v>120827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
-        <v>21113</v>
+        <v>37410</v>
       </c>
       <c r="L3" t="n">
-        <v>69.5</v>
+        <v>32.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1717531</v>
+        <v>969707</v>
       </c>
       <c r="N3" t="n">
-        <v>30.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>754057</v>
+        <v>2047366</v>
       </c>
     </row>
     <row r="4">
@@ -624,43 +624,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226810</v>
+        <v>298263</v>
       </c>
       <c r="D4" t="n">
-        <v>54.4</v>
+        <v>50.5</v>
       </c>
       <c r="E4" t="n">
-        <v>123430</v>
+        <v>150564</v>
       </c>
       <c r="F4" t="n">
         <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>10442</v>
+        <v>13671</v>
       </c>
       <c r="H4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4189</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.1</v>
       </c>
-      <c r="I4" t="n">
-        <v>7031</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.9</v>
-      </c>
       <c r="K4" t="n">
-        <v>11150</v>
+        <v>9144</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>40.5</v>
       </c>
       <c r="M4" t="n">
-        <v>74758</v>
+        <v>120695</v>
       </c>
       <c r="N4" t="n">
-        <v>67</v>
+        <v>59.5</v>
       </c>
       <c r="O4" t="n">
-        <v>152052</v>
+        <v>177568</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113405</v>
+        <v>175077</v>
       </c>
       <c r="D5" t="n">
-        <v>44.4</v>
+        <v>57.7</v>
       </c>
       <c r="E5" t="n">
-        <v>50335</v>
+        <v>100984</v>
       </c>
       <c r="F5" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9656</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>4309</v>
+        <v>8669</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>622</v>
+        <v>5371</v>
       </c>
       <c r="L5" t="n">
-        <v>42.8</v>
+        <v>34.3</v>
       </c>
       <c r="M5" t="n">
-        <v>48483</v>
+        <v>60053</v>
       </c>
       <c r="N5" t="n">
-        <v>57.2</v>
+        <v>65.7</v>
       </c>
       <c r="O5" t="n">
-        <v>64922</v>
+        <v>115024</v>
       </c>
     </row>
     <row r="6">
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22154</v>
+        <v>137139</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>54.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11747</v>
+        <v>74854</v>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>913</v>
+        <v>4418</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -747,22 +747,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1584</v>
+        <v>7662</v>
       </c>
       <c r="L6" t="n">
-        <v>35.7</v>
+        <v>36.6</v>
       </c>
       <c r="M6" t="n">
-        <v>7909</v>
+        <v>50206</v>
       </c>
       <c r="N6" t="n">
-        <v>64.3</v>
+        <v>63.4</v>
       </c>
       <c r="O6" t="n">
-        <v>14245</v>
+        <v>86934</v>
       </c>
     </row>
     <row r="7">
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1251549</v>
+        <v>1174672</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>329536</v>
+        <v>634756</v>
       </c>
       <c r="F7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7218</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19437</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>19912</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8</v>
-      </c>
       <c r="K7" t="n">
-        <v>10346</v>
+        <v>19067</v>
       </c>
       <c r="L7" t="n">
-        <v>64.5</v>
+        <v>42.1</v>
       </c>
       <c r="M7" t="n">
-        <v>807387</v>
+        <v>494194</v>
       </c>
       <c r="N7" t="n">
-        <v>35.5</v>
+        <v>57.9</v>
       </c>
       <c r="O7" t="n">
-        <v>444162</v>
+        <v>680478</v>
       </c>
     </row>
     <row r="8">
@@ -828,43 +828,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1582409</v>
+        <v>1577327</v>
       </c>
       <c r="D8" t="n">
-        <v>27.4</v>
+        <v>53.2</v>
       </c>
       <c r="E8" t="n">
-        <v>433202</v>
+        <v>838634</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>48981</v>
+        <v>92698</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>65011</v>
+        <v>73605</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>26622</v>
+        <v>33713</v>
       </c>
       <c r="L8" t="n">
-        <v>63.7</v>
+        <v>34.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1008594</v>
+        <v>538677</v>
       </c>
       <c r="N8" t="n">
-        <v>36.3</v>
+        <v>65.8</v>
       </c>
       <c r="O8" t="n">
-        <v>573815</v>
+        <v>1038650</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>235341</v>
+        <v>120602</v>
       </c>
       <c r="D9" t="n">
-        <v>25.4</v>
+        <v>66.5</v>
       </c>
       <c r="E9" t="n">
-        <v>59784</v>
+        <v>80187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I9" t="n">
-        <v>15517</v>
+        <v>8528</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2175</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>67</v>
+        <v>26.4</v>
       </c>
       <c r="M9" t="n">
-        <v>157732</v>
+        <v>31887</v>
       </c>
       <c r="N9" t="n">
-        <v>33</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>77609</v>
+        <v>88714</v>
       </c>
     </row>
     <row r="10">
@@ -930,43 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1089984</v>
+        <v>783143</v>
       </c>
       <c r="D10" t="n">
-        <v>25.3</v>
+        <v>34.8</v>
       </c>
       <c r="E10" t="n">
-        <v>275250</v>
+        <v>272661</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5829</v>
+        <v>5017</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>23116</v>
+        <v>7801</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>6112</v>
+        <v>14633</v>
       </c>
       <c r="L10" t="n">
-        <v>71.5</v>
+        <v>61.7</v>
       </c>
       <c r="M10" t="n">
-        <v>779677</v>
+        <v>483031</v>
       </c>
       <c r="N10" t="n">
-        <v>28.5</v>
+        <v>38.3</v>
       </c>
       <c r="O10" t="n">
-        <v>310307</v>
+        <v>300112</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>865740</v>
+        <v>664247</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>208853</v>
+        <v>305288</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3018</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="I11" t="n">
-        <v>15934</v>
+        <v>44418</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>16479</v>
+        <v>21636</v>
       </c>
       <c r="L11" t="n">
-        <v>71.8</v>
+        <v>44.1</v>
       </c>
       <c r="M11" t="n">
-        <v>621456</v>
+        <v>292904</v>
       </c>
       <c r="N11" t="n">
-        <v>28.2</v>
+        <v>55.9</v>
       </c>
       <c r="O11" t="n">
-        <v>244284</v>
+        <v>371343</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>648133</v>
+        <v>594159</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4</v>
+        <v>62.2</v>
       </c>
       <c r="E12" t="n">
-        <v>229279</v>
+        <v>369306</v>
       </c>
       <c r="F12" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>39608</v>
+        <v>59214</v>
       </c>
       <c r="H12" t="n">
-        <v>12.5</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>80892</v>
+        <v>1134</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>5805</v>
+        <v>14701</v>
       </c>
       <c r="L12" t="n">
-        <v>45.1</v>
+        <v>25.2</v>
       </c>
       <c r="M12" t="n">
-        <v>292549</v>
+        <v>149805</v>
       </c>
       <c r="N12" t="n">
-        <v>54.9</v>
+        <v>74.8</v>
       </c>
       <c r="O12" t="n">
-        <v>355584</v>
+        <v>444354</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -522,43 +522,43 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3627552</v>
+        <v>2833958</v>
       </c>
       <c r="D2" t="n">
-        <v>59.4</v>
+        <v>27.7</v>
       </c>
       <c r="E2" t="n">
-        <v>2153779</v>
+        <v>785395</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>79840</v>
+        <v>113896</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>133685</v>
+        <v>111194</v>
       </c>
       <c r="J2" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>59587</v>
+        <v>40407</v>
       </c>
       <c r="L2" t="n">
-        <v>33.1</v>
+        <v>62.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1200661</v>
+        <v>1783065</v>
       </c>
       <c r="N2" t="n">
-        <v>66.90000000000001</v>
+        <v>37.1</v>
       </c>
       <c r="O2" t="n">
-        <v>2426892</v>
+        <v>1050893</v>
       </c>
     </row>
     <row r="3">
@@ -573,43 +573,43 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3017073</v>
+        <v>2471589</v>
       </c>
       <c r="D3" t="n">
-        <v>60.6</v>
+        <v>24.4</v>
       </c>
       <c r="E3" t="n">
-        <v>1827377</v>
+        <v>603451</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>61752</v>
+        <v>97997</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>120827</v>
+        <v>99845</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>37410</v>
+        <v>25528</v>
       </c>
       <c r="L3" t="n">
-        <v>32.1</v>
+        <v>66.5</v>
       </c>
       <c r="M3" t="n">
-        <v>969707</v>
+        <v>1644768</v>
       </c>
       <c r="N3" t="n">
-        <v>67.90000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2047366</v>
+        <v>826821</v>
       </c>
     </row>
     <row r="4">
@@ -624,43 +624,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>298263</v>
+        <v>226810</v>
       </c>
       <c r="D4" t="n">
-        <v>50.5</v>
+        <v>51.4</v>
       </c>
       <c r="E4" t="n">
-        <v>150564</v>
+        <v>116675</v>
       </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>13671</v>
+        <v>7382</v>
       </c>
       <c r="H4" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4189</v>
+        <v>7675</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>9144</v>
+        <v>11695</v>
       </c>
       <c r="L4" t="n">
-        <v>40.5</v>
+        <v>36.8</v>
       </c>
       <c r="M4" t="n">
-        <v>120695</v>
+        <v>83383</v>
       </c>
       <c r="N4" t="n">
-        <v>59.5</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>177568</v>
+        <v>143427</v>
       </c>
     </row>
     <row r="5">
@@ -675,43 +675,43 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175077</v>
+        <v>113405</v>
       </c>
       <c r="D5" t="n">
-        <v>57.7</v>
+        <v>45.8</v>
       </c>
       <c r="E5" t="n">
-        <v>100984</v>
+        <v>51983</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8099</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>8669</v>
+        <v>3469</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5371</v>
+        <v>2034</v>
       </c>
       <c r="L5" t="n">
-        <v>34.3</v>
+        <v>42.2</v>
       </c>
       <c r="M5" t="n">
-        <v>60053</v>
+        <v>47820</v>
       </c>
       <c r="N5" t="n">
-        <v>65.7</v>
+        <v>57.8</v>
       </c>
       <c r="O5" t="n">
-        <v>115024</v>
+        <v>65585</v>
       </c>
     </row>
     <row r="6">
@@ -726,43 +726,43 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>137139</v>
+        <v>22154</v>
       </c>
       <c r="D6" t="n">
-        <v>54.6</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>74854</v>
+        <v>13287</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>4418</v>
+        <v>418</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J6" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>7662</v>
+        <v>1150</v>
       </c>
       <c r="L6" t="n">
-        <v>36.6</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>50206</v>
+        <v>7094</v>
       </c>
       <c r="N6" t="n">
-        <v>63.4</v>
+        <v>68</v>
       </c>
       <c r="O6" t="n">
-        <v>86934</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="7">
@@ -777,43 +777,43 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1174672</v>
+        <v>1251549</v>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>26.8</v>
       </c>
       <c r="E7" t="n">
-        <v>634756</v>
+        <v>335825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="G7" t="n">
-        <v>7218</v>
+        <v>54947</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>19437</v>
+        <v>48329</v>
       </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K7" t="n">
-        <v>19067</v>
+        <v>15870</v>
       </c>
       <c r="L7" t="n">
-        <v>42.1</v>
+        <v>63.6</v>
       </c>
       <c r="M7" t="n">
-        <v>494194</v>
+        <v>796577</v>
       </c>
       <c r="N7" t="n">
-        <v>57.9</v>
+        <v>36.4</v>
       </c>
       <c r="O7" t="n">
-        <v>680478</v>
+        <v>454972</v>
       </c>
     </row>
     <row r="8">
@@ -828,43 +828,43 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1577327</v>
+        <v>1582409</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2</v>
+        <v>28.6</v>
       </c>
       <c r="E8" t="n">
-        <v>838634</v>
+        <v>451938</v>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>92698</v>
+        <v>56971</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>73605</v>
+        <v>65185</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="n">
-        <v>33713</v>
+        <v>24672</v>
       </c>
       <c r="L8" t="n">
-        <v>34.2</v>
+        <v>62.2</v>
       </c>
       <c r="M8" t="n">
-        <v>538677</v>
+        <v>983644</v>
       </c>
       <c r="N8" t="n">
-        <v>65.8</v>
+        <v>37.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1038650</v>
+        <v>598765</v>
       </c>
     </row>
     <row r="9">
@@ -879,43 +879,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120602</v>
+        <v>290232</v>
       </c>
       <c r="D9" t="n">
-        <v>66.5</v>
+        <v>26.8</v>
       </c>
       <c r="E9" t="n">
-        <v>80187</v>
+        <v>77773</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2364</v>
       </c>
       <c r="H9" t="n">
-        <v>7.1</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>8528</v>
+        <v>6904</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4234</v>
       </c>
       <c r="L9" t="n">
-        <v>26.4</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>31887</v>
+        <v>198957</v>
       </c>
       <c r="N9" t="n">
-        <v>73.59999999999999</v>
+        <v>31.4</v>
       </c>
       <c r="O9" t="n">
-        <v>88714</v>
+        <v>91274</v>
       </c>
     </row>
     <row r="10">
@@ -930,43 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>783143</v>
+        <v>1089984</v>
       </c>
       <c r="D10" t="n">
-        <v>34.8</v>
+        <v>22.2</v>
       </c>
       <c r="E10" t="n">
-        <v>272661</v>
+        <v>242310</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5017</v>
+        <v>10040</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>7801</v>
+        <v>55205</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>14633</v>
+        <v>19733</v>
       </c>
       <c r="L10" t="n">
-        <v>61.7</v>
+        <v>70</v>
       </c>
       <c r="M10" t="n">
-        <v>483031</v>
+        <v>762696</v>
       </c>
       <c r="N10" t="n">
-        <v>38.3</v>
+        <v>30</v>
       </c>
       <c r="O10" t="n">
-        <v>300112</v>
+        <v>327288</v>
       </c>
     </row>
     <row r="11">
@@ -981,43 +981,43 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>664247</v>
+        <v>871987</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>26.4</v>
       </c>
       <c r="E11" t="n">
-        <v>305288</v>
+        <v>229861</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>26406</v>
       </c>
       <c r="H11" t="n">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>44418</v>
+        <v>29001</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="n">
-        <v>21636</v>
+        <v>12007</v>
       </c>
       <c r="L11" t="n">
-        <v>44.1</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="M11" t="n">
-        <v>292904</v>
+        <v>574713</v>
       </c>
       <c r="N11" t="n">
-        <v>55.9</v>
+        <v>34.1</v>
       </c>
       <c r="O11" t="n">
-        <v>371343</v>
+        <v>297274</v>
       </c>
     </row>
     <row r="12">
@@ -1032,43 +1032,43 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>594159</v>
+        <v>653990</v>
       </c>
       <c r="D12" t="n">
-        <v>62.2</v>
+        <v>40.5</v>
       </c>
       <c r="E12" t="n">
-        <v>369306</v>
+        <v>264609</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>59214</v>
+        <v>78244</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1134</v>
+        <v>20489</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="K12" t="n">
-        <v>14701</v>
+        <v>4536</v>
       </c>
       <c r="L12" t="n">
-        <v>25.2</v>
+        <v>43.7</v>
       </c>
       <c r="M12" t="n">
-        <v>149805</v>
+        <v>286113</v>
       </c>
       <c r="N12" t="n">
-        <v>74.8</v>
+        <v>56.3</v>
       </c>
       <c r="O12" t="n">
-        <v>444354</v>
+        <v>367878</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,253 +522,253 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2833958</v>
+        <v>68663199</v>
       </c>
       <c r="D2" t="n">
-        <v>27.7</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>785395</v>
+        <v>22642378</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>113896</v>
+        <v>75499</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>111194</v>
+        <v>286415</v>
       </c>
       <c r="J2" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>40407</v>
+        <v>598007</v>
       </c>
       <c r="L2" t="n">
-        <v>62.9</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>1783065</v>
+        <v>45060900</v>
       </c>
       <c r="N2" t="n">
-        <v>37.1</v>
+        <v>34.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1050893</v>
+        <v>23602299</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ocap (5-17 y.o.)</t>
+          <t>non_pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocap</t>
+          <t>non_pdi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2471589</v>
+        <v>48523504</v>
       </c>
       <c r="D3" t="n">
         <v>24.4</v>
       </c>
       <c r="E3" t="n">
-        <v>603451</v>
+        <v>11822828</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>97997</v>
+        <v>52304</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>99845</v>
+        <v>227095</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K3" t="n">
-        <v>25528</v>
+        <v>423026</v>
       </c>
       <c r="L3" t="n">
-        <v>66.5</v>
+        <v>74.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1644768</v>
+        <v>35998252</v>
       </c>
       <c r="N3" t="n">
-        <v>33.5</v>
+        <v>25.8</v>
       </c>
       <c r="O3" t="n">
-        <v>826821</v>
+        <v>12525253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>idp (5-17 y.o.)</t>
+          <t>pdi (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idp</t>
+          <t>pdi</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>226810</v>
+        <v>20139695</v>
       </c>
       <c r="D4" t="n">
-        <v>51.4</v>
+        <v>53.7</v>
       </c>
       <c r="E4" t="n">
-        <v>116675</v>
+        <v>10819550</v>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>7382</v>
+        <v>23195</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="I4" t="n">
-        <v>7675</v>
+        <v>59320</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="K4" t="n">
-        <v>11695</v>
+        <v>174981</v>
       </c>
       <c r="L4" t="n">
-        <v>36.8</v>
+        <v>45</v>
       </c>
       <c r="M4" t="n">
-        <v>83383</v>
+        <v>9062649</v>
       </c>
       <c r="N4" t="n">
-        <v>63.2</v>
+        <v>55</v>
       </c>
       <c r="O4" t="n">
-        <v>143427</v>
+        <v>11077047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ret (5-17 y.o.)</t>
+          <t>Girls (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ret</t>
+          <t>All population groups</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>113405</v>
+        <v>30193399</v>
       </c>
       <c r="D5" t="n">
-        <v>45.8</v>
+        <v>34.1</v>
       </c>
       <c r="E5" t="n">
-        <v>51983</v>
+        <v>10282418</v>
       </c>
       <c r="F5" t="n">
-        <v>7.1</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>8099</v>
+        <v>15539</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3469</v>
+        <v>106744</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2034</v>
+        <v>243257</v>
       </c>
       <c r="L5" t="n">
-        <v>42.2</v>
+        <v>64.7</v>
       </c>
       <c r="M5" t="n">
-        <v>47820</v>
+        <v>19545441</v>
       </c>
       <c r="N5" t="n">
-        <v>57.8</v>
+        <v>35.3</v>
       </c>
       <c r="O5" t="n">
-        <v>65585</v>
+        <v>10647958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ndsp (5-17 y.o.)</t>
+          <t>Boys (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ndsp</t>
+          <t>All population groups</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22154</v>
+        <v>38469800</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>31.8</v>
       </c>
       <c r="E6" t="n">
-        <v>13287</v>
+        <v>12247982</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>418</v>
+        <v>62081</v>
       </c>
       <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>190004</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.9</v>
       </c>
-      <c r="I6" t="n">
-        <v>205</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.2</v>
-      </c>
       <c r="K6" t="n">
-        <v>1150</v>
+        <v>355336</v>
       </c>
       <c r="L6" t="n">
-        <v>32</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>7094</v>
+        <v>25614397</v>
       </c>
       <c r="N6" t="n">
-        <v>68</v>
+        <v>33.4</v>
       </c>
       <c r="O6" t="n">
-        <v>15060</v>
+        <v>12855403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Girls (5-17 y.o.)</t>
+          <t>ECE (5 y.o.)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1251549</v>
+        <v>6978393</v>
       </c>
       <c r="D7" t="n">
-        <v>26.8</v>
+        <v>63.3</v>
       </c>
       <c r="E7" t="n">
-        <v>335825</v>
+        <v>4420486</v>
       </c>
       <c r="F7" t="n">
-        <v>4.4</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>54947</v>
+        <v>5418</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>48329</v>
+        <v>29389</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
-        <v>15870</v>
+        <v>32932</v>
       </c>
       <c r="L7" t="n">
-        <v>63.6</v>
+        <v>35.7</v>
       </c>
       <c r="M7" t="n">
-        <v>796577</v>
+        <v>2490167</v>
       </c>
       <c r="N7" t="n">
-        <v>36.4</v>
+        <v>64.3</v>
       </c>
       <c r="O7" t="n">
-        <v>454972</v>
+        <v>4488226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Boys (5-17 y.o.)</t>
+          <t>Primary school</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -828,49 +828,49 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1582409</v>
+        <v>26408923</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6</v>
+        <v>22.4</v>
       </c>
       <c r="E8" t="n">
-        <v>451938</v>
+        <v>5914019</v>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>56971</v>
+        <v>10888</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>65185</v>
+        <v>97051</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>24672</v>
+        <v>299759</v>
       </c>
       <c r="L8" t="n">
-        <v>62.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>983644</v>
+        <v>20087206</v>
       </c>
       <c r="N8" t="n">
-        <v>37.8</v>
+        <v>23.9</v>
       </c>
       <c r="O8" t="n">
-        <v>598765</v>
+        <v>6321717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>Intermediate school-level</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -879,49 +879,49 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>290232</v>
+        <v>21127138</v>
       </c>
       <c r="D9" t="n">
-        <v>26.8</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>77773</v>
+        <v>6555234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2364</v>
+        <v>33804</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6904</v>
+        <v>99615</v>
       </c>
       <c r="J9" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4234</v>
+        <v>188863</v>
       </c>
       <c r="L9" t="n">
-        <v>68.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>198957</v>
+        <v>14249623</v>
       </c>
       <c r="N9" t="n">
-        <v>31.4</v>
+        <v>32.6</v>
       </c>
       <c r="O9" t="n">
-        <v>91274</v>
+        <v>6877515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Primary school</t>
+          <t>Secondary school</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -930,145 +930,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1089984</v>
+        <v>15845354</v>
       </c>
       <c r="D10" t="n">
-        <v>22.2</v>
+        <v>49.5</v>
       </c>
       <c r="E10" t="n">
-        <v>242310</v>
+        <v>7851209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>10040</v>
+        <v>31752</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>55205</v>
+        <v>71926</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="K10" t="n">
-        <v>19733</v>
+        <v>44492</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>49.5</v>
       </c>
       <c r="M10" t="n">
-        <v>762696</v>
+        <v>7845974</v>
       </c>
       <c r="N10" t="n">
-        <v>30</v>
+        <v>50.5</v>
       </c>
       <c r="O10" t="n">
-        <v>327288</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Intermediate school-level</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>871987</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>229861</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>26406</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12007</v>
-      </c>
-      <c r="L11" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="M11" t="n">
-        <v>574713</v>
-      </c>
-      <c r="N11" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>297274</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Secondary school</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>653990</v>
-      </c>
-      <c r="D12" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>264609</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>78244</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>20489</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4536</v>
-      </c>
-      <c r="L12" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>286113</v>
-      </c>
-      <c r="N12" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>367878</v>
+        <v>7999380</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Population group</t>
+          <t>Groupe de population</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -513,12 +513,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TOTAL (5-17 y.o.)</t>
+          <t>TOTAL (5-17 ans)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -666,12 +666,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Girls (5-17 y.o.)</t>
+          <t>Filles (5-17 ans)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -717,12 +717,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boys (5-17 y.o.)</t>
+          <t>Garcons (5-17 ans)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -768,12 +768,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ECE (5 y.o.)</t>
+          <t>Éducation préscolaire (5 ans)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -819,12 +819,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Primary school</t>
+          <t>École primaire</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -870,12 +870,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intermediate school-level</t>
+          <t>Niveau scolaire intermédiaire</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -921,12 +921,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Secondary school</t>
+          <t>École secondaire</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>All population groups</t>
+          <t>Tous les groupes de population</t>
         </is>
       </c>
       <c r="C10" t="n">

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TotN</t>
+          <t>Population totale</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/output_validation/05_dimension_overview.xlsx
+++ b/output_validation/05_dimension_overview.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,253 +522,253 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68663199</v>
+        <v>2307204</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>21.3</v>
       </c>
       <c r="E2" t="n">
-        <v>22642378</v>
+        <v>491129</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>75499</v>
+        <v>49876</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>26.2</v>
       </c>
       <c r="I2" t="n">
-        <v>286415</v>
+        <v>603526</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>598007</v>
+        <v>67720</v>
       </c>
       <c r="L2" t="n">
-        <v>65.59999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="M2" t="n">
-        <v>45060900</v>
+        <v>1094955</v>
       </c>
       <c r="N2" t="n">
-        <v>34.4</v>
+        <v>52.5</v>
       </c>
       <c r="O2" t="n">
-        <v>23602299</v>
+        <v>1212250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>non_pdi (5-17 y.o.)</t>
+          <t>hote (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>non_pdi</t>
+          <t>hote</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48523504</v>
+        <v>2077436</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4</v>
+        <v>20.9</v>
       </c>
       <c r="E3" t="n">
-        <v>11822828</v>
+        <v>434615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>52304</v>
+        <v>43979</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>227095</v>
+        <v>540693</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>423026</v>
+        <v>59824</v>
       </c>
       <c r="L3" t="n">
-        <v>74.2</v>
+        <v>48.1</v>
       </c>
       <c r="M3" t="n">
-        <v>35998252</v>
+        <v>998326</v>
       </c>
       <c r="N3" t="n">
-        <v>25.8</v>
+        <v>51.9</v>
       </c>
       <c r="O3" t="n">
-        <v>12525253</v>
+        <v>1079110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pdi (5-17 y.o.)</t>
+          <t>idp_host (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pdi</t>
+          <t>idp_host</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20139695</v>
+        <v>125059</v>
       </c>
       <c r="D4" t="n">
-        <v>53.7</v>
+        <v>23.8</v>
       </c>
       <c r="E4" t="n">
-        <v>10819550</v>
+        <v>29787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>23195</v>
+        <v>2561</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>24.7</v>
       </c>
       <c r="I4" t="n">
-        <v>59320</v>
+        <v>30925</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>174981</v>
+        <v>3476</v>
       </c>
       <c r="L4" t="n">
-        <v>45</v>
+        <v>46.6</v>
       </c>
       <c r="M4" t="n">
-        <v>9062649</v>
+        <v>58310</v>
       </c>
       <c r="N4" t="n">
-        <v>55</v>
+        <v>53.4</v>
       </c>
       <c r="O4" t="n">
-        <v>11077047</v>
+        <v>66749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Filles (5-17 ans)</t>
+          <t>retourne (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tous les groupes de population</t>
+          <t>retourne</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30193399</v>
+        <v>77546</v>
       </c>
       <c r="D5" t="n">
-        <v>34.1</v>
+        <v>24.3</v>
       </c>
       <c r="E5" t="n">
-        <v>10282418</v>
+        <v>18874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>15539</v>
+        <v>2658</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4</v>
+        <v>31.4</v>
       </c>
       <c r="I5" t="n">
-        <v>106744</v>
+        <v>24380</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>243257</v>
+        <v>3509</v>
       </c>
       <c r="L5" t="n">
-        <v>64.7</v>
+        <v>36.3</v>
       </c>
       <c r="M5" t="n">
-        <v>19545441</v>
+        <v>28124</v>
       </c>
       <c r="N5" t="n">
-        <v>35.3</v>
+        <v>63.7</v>
       </c>
       <c r="O5" t="n">
-        <v>10647958</v>
+        <v>49422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Garcons (5-17 ans)</t>
+          <t>idp_site (5-17 y.o.)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tous les groupes de population</t>
+          <t>idp_site</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38469800</v>
+        <v>27164</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8</v>
+        <v>28.9</v>
       </c>
       <c r="E6" t="n">
-        <v>12247982</v>
+        <v>7853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
-        <v>62081</v>
+        <v>678</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>27.7</v>
       </c>
       <c r="I6" t="n">
-        <v>190004</v>
+        <v>7528</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>355336</v>
+        <v>911</v>
       </c>
       <c r="L6" t="n">
-        <v>66.59999999999999</v>
+        <v>37.5</v>
       </c>
       <c r="M6" t="n">
-        <v>25614397</v>
+        <v>10195</v>
       </c>
       <c r="N6" t="n">
-        <v>33.4</v>
+        <v>62.5</v>
       </c>
       <c r="O6" t="n">
-        <v>12855403</v>
+        <v>16970</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Éducation préscolaire (5 ans)</t>
+          <t>Filles (5-17 ans)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -777,49 +777,49 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6978393</v>
+        <v>1176674</v>
       </c>
       <c r="D7" t="n">
-        <v>63.3</v>
+        <v>22.4</v>
       </c>
       <c r="E7" t="n">
-        <v>4420486</v>
+        <v>263952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>5418</v>
+        <v>28789</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>29389</v>
+        <v>306362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="K7" t="n">
-        <v>32932</v>
+        <v>34418</v>
       </c>
       <c r="L7" t="n">
-        <v>35.7</v>
+        <v>46.2</v>
       </c>
       <c r="M7" t="n">
-        <v>2490167</v>
+        <v>543153</v>
       </c>
       <c r="N7" t="n">
-        <v>64.3</v>
+        <v>53.8</v>
       </c>
       <c r="O7" t="n">
-        <v>4488226</v>
+        <v>633521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>École primaire</t>
+          <t>Garcons (5-17 ans)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -828,49 +828,49 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26408923</v>
+        <v>1129288</v>
       </c>
       <c r="D8" t="n">
-        <v>22.4</v>
+        <v>20.2</v>
       </c>
       <c r="E8" t="n">
-        <v>5914019</v>
+        <v>228254</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G8" t="n">
-        <v>10888</v>
+        <v>21528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>26.2</v>
       </c>
       <c r="I8" t="n">
-        <v>97051</v>
+        <v>295484</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>299759</v>
+        <v>33235</v>
       </c>
       <c r="L8" t="n">
-        <v>76.09999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="M8" t="n">
-        <v>20087206</v>
+        <v>550787</v>
       </c>
       <c r="N8" t="n">
-        <v>23.9</v>
+        <v>51.2</v>
       </c>
       <c r="O8" t="n">
-        <v>6321717</v>
+        <v>578500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Niveau scolaire intermédiaire</t>
+          <t>Éducation préscolaire (5 ans)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -879,94 +879,196 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21127138</v>
+        <v>134153</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>53.3</v>
       </c>
       <c r="E9" t="n">
-        <v>6555234</v>
+        <v>71504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>33804</v>
+        <v>4967</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5</v>
+        <v>11.9</v>
       </c>
       <c r="I9" t="n">
-        <v>99615</v>
+        <v>15922</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>188863</v>
+        <v>1948</v>
       </c>
       <c r="L9" t="n">
-        <v>67.40000000000001</v>
+        <v>29.7</v>
       </c>
       <c r="M9" t="n">
-        <v>14249623</v>
+        <v>39813</v>
       </c>
       <c r="N9" t="n">
-        <v>32.6</v>
+        <v>70.3</v>
       </c>
       <c r="O9" t="n">
-        <v>6877515</v>
+        <v>94340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>École primaire</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tous les groupes de population</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1242341</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>252799</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18596</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>331596</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36994</v>
+      </c>
+      <c r="L10" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>602355</v>
+      </c>
+      <c r="N10" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>639986</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Niveau scolaire intermédiaire</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tous les groupes de population</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>709129</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>123654</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18254</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>190763</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20858</v>
+      </c>
+      <c r="L11" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>355600</v>
+      </c>
+      <c r="N11" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>353529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>École secondaire</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Tous les groupes de population</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>15845354</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7851209</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>31752</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>71926</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44492</v>
-      </c>
-      <c r="L10" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7845974</v>
-      </c>
-      <c r="N10" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>7999380</v>
+      <c r="C12" t="n">
+        <v>175507</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>34056</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9890</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>45991</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7850</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>77721</v>
+      </c>
+      <c r="N12" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>97786</v>
       </c>
     </row>
   </sheetData>
